--- a/Blockpower/evidence.xlsx
+++ b/Blockpower/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiger/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiger/dev/GitHub/gon-evidence/Blockpower/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E6021B-D075-1D46-9371-4BE934D59C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F6240-C120-0F43-98FB-2E73D2413953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26060" yWindow="6200" windowWidth="42960" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26460" yWindow="7920" windowWidth="42960" windowHeight="15260" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,33 +76,18 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
     <t>dest chain id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -146,13 +131,90 @@
   </si>
   <si>
     <t>Blockpower#5807</t>
+  </si>
+  <si>
+    <t>26C2BAC53FF424E11E73F89A39AC401C9EE5DEF98971F4946074025DFCC1AD3D</t>
+  </si>
+  <si>
+    <t>uptickd8a0c571e265f776</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C91035D934969DDB72219FB83F88E457EB5C57C6ED33ED8855DDA081679E4549</t>
+  </si>
+  <si>
+    <t>bpnft</t>
+  </si>
+  <si>
+    <t>bpnft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpnft2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpnft3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpnft4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpnft5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B0727D313227FDD002C6ECE6FE42E1387BDC5DA5F9FF308E37DB4885D33B6AD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0B1DA222722CEE6297B26CEBE0F3E1AC7DC7CBC673224E397FD905AB35A5AC3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2817AF0F599B0338C3C6D8686D6071BB53C86A3D7A61B52FAB43F4D5C3E5498B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>752CC4007F006032E065F57D1D811A19855502F2E58E266858D6CCD216BF87BA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0109E3B37BBDBB605AC387A62543288B1204678FEC2D3BB412FBE38D99C97BD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E886FE4E873595661802947FBE5944A9EAA2F1C88BE080252FC09FA7577379A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/5C4EF4C6ED9C58B6B04C0D980253B61BEDC6339FD1A7562184FA642812A5D7A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>852B88402ACB856C89977507543CE74F41866343313D47A493DDA3CE999785AF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +230,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -221,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -235,6 +305,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,7 +614,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -586,25 +658,25 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -633,15 +705,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -670,15 +742,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -707,15 +779,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -744,15 +816,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -781,25 +853,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -828,25 +900,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -875,25 +947,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -922,25 +994,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -969,25 +1041,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1016,25 +1088,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1122,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1067,10 +1141,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1099,25 +1173,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1146,25 +1220,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1194,12 +1268,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1229,12 +1303,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1264,12 +1338,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1299,12 +1373,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1318,9 +1392,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1336,19 +1412,67 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1363,7 +1487,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1380,24 +1506,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1539,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1430,24 +1558,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1591,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1480,24 +1610,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1643,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1531,24 +1663,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1577,15 +1709,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1614,17 +1746,17 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
